--- a/Examples/GCode/test.xlsx
+++ b/Examples/GCode/test.xlsx
@@ -84,66 +84,39 @@
     <t>N1 G92</t>
   </si>
   <si>
-    <t>N2 G01 X45 I4000</t>
-  </si>
-  <si>
     <t>N6 M20</t>
   </si>
   <si>
-    <t>N8 G01 X-45 I4000</t>
-  </si>
-  <si>
     <t>N9 M21</t>
   </si>
   <si>
-    <t>N10 G01 X45 I4000</t>
-  </si>
-  <si>
     <t>N11 G01 X20 I4000</t>
   </si>
   <si>
     <t>N12 M20</t>
   </si>
   <si>
-    <t>N14 G01 X45 I4000</t>
-  </si>
-  <si>
     <t>N15 M21</t>
   </si>
   <si>
     <t>N18 M20</t>
   </si>
   <si>
-    <t>N20 G01 X-45 I4000</t>
-  </si>
-  <si>
     <t>N21 M21</t>
   </si>
   <si>
-    <t>N22 G01 X45 I4000</t>
-  </si>
-  <si>
     <t>N23 G01 X20 I4000</t>
   </si>
   <si>
     <t>N24 M20</t>
   </si>
   <si>
-    <t>N26 G01 X45 I4000</t>
-  </si>
-  <si>
     <t>N27 M30</t>
   </si>
   <si>
-    <t>N4 G01 X-45 I4000</t>
-  </si>
-  <si>
     <t>N5 G01 X-20 I4000</t>
   </si>
   <si>
-    <t>N16 G01 X-45 I4000</t>
-  </si>
-  <si>
     <t>N17 G01 X-20 I4000</t>
   </si>
   <si>
@@ -160,6 +133,33 @@
   </si>
   <si>
     <t>N25 G01 Z100 K2000</t>
+  </si>
+  <si>
+    <t>N2 G01 X90 I4000</t>
+  </si>
+  <si>
+    <t>N4 G01 X-90 I4000</t>
+  </si>
+  <si>
+    <t>N8 G01 X-90 I4000</t>
+  </si>
+  <si>
+    <t>N10 G01 X90 I4000</t>
+  </si>
+  <si>
+    <t>N14 G01 X90 I4000</t>
+  </si>
+  <si>
+    <t>N16 G01 X-90 I4000</t>
+  </si>
+  <si>
+    <t>N20 G01 X-90 I4000</t>
+  </si>
+  <si>
+    <t>N22 G01 X90 I4000</t>
+  </si>
+  <si>
+    <t>N26 G01 X90 I4000</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -736,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
@@ -850,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
@@ -964,7 +964,7 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1134,122 +1134,122 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
